--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-018 Pedido Interno de Almacen.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-018 Pedido Interno de Almacen.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mghQk7RwxH7qRCnEwFEmHpAnkd9gg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mj0t/1oiBTJY9s6YXch9Iu/eqEtGQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>GESTION FINANCIERA</t>
   </si>
@@ -111,51 +111,6 @@
   <si>
     <t>Vicerector</t>
   </si>
-  <si>
-    <t>Fecha de elaboración: 01/10/2018</t>
-  </si>
-  <si>
-    <t>Fecha de revisión: 01/11/2018</t>
-  </si>
-  <si>
-    <t>Fecha de aprobación: 01/11/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboro: </t>
-  </si>
-  <si>
-    <t>Diego Castro Perdomo</t>
-  </si>
-  <si>
-    <t>Reviso:</t>
-  </si>
-  <si>
-    <t>Yhon Pineda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprobó: </t>
-  </si>
-  <si>
-    <t>Guillermo Arias Ostos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargo: </t>
-  </si>
-  <si>
-    <t>Compras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargo:  </t>
-  </si>
-  <si>
-    <t>Contador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargo:    </t>
-  </si>
-  <si>
-    <t>Aseguramiento de la calidad</t>
-  </si>
 </sst>
 </file>
 
@@ -164,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -211,30 +166,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,14 +216,8 @@
         <bgColor rgb="FFDADADA"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="55">
+  <borders count="53">
     <border/>
     <border>
       <left style="medium">
@@ -766,34 +693,12 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -910,13 +815,7 @@
     <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="43" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="44" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -944,39 +843,6 @@
     <xf borderId="39" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="41" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="53" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="54" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="53" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="54" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1049,7 +915,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1065,7 +931,6 @@
     <col customWidth="1" min="7" max="8" width="10.43"/>
     <col customWidth="1" min="9" max="9" width="10.71"/>
     <col customWidth="1" min="10" max="10" width="5.86"/>
-    <col customWidth="1" min="11" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
@@ -1126,7 +991,7 @@
       </c>
       <c r="B4" s="24">
         <f>TODAY()</f>
-        <v>43649</v>
+        <v>43656</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1149,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($B5,$X$4:$Y$152,2,0)),"",VLOOKUP($B5,$X$4:$Y$152,2,0))</f>
+        <f>IF(ISERROR(VLOOKUP($B5,#REF!,2,0)),"",VLOOKUP($B5,#REF!,2,0))</f>
         <v/>
       </c>
       <c r="H5" s="33"/>
@@ -1231,11 +1096,10 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="46"/>
-      <c r="L10" s="54"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -1244,7 +1108,6 @@
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
       <c r="J11" s="51"/>
-      <c r="L11" s="56"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="52"/>
@@ -1259,8 +1122,8 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="49"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -1283,8 +1146,8 @@
       <c r="J14" s="46"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -1307,8 +1170,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -1331,8 +1194,8 @@
       <c r="J18" s="46"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -1355,8 +1218,8 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="49"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -1379,8 +1242,8 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="49"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -1403,8 +1266,8 @@
       <c r="J24" s="46"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="49"/>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
@@ -1427,8 +1290,8 @@
       <c r="J26" s="46"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="49"/>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
@@ -1451,8 +1314,8 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="49"/>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
@@ -1463,21 +1326,21 @@
       <c r="J29" s="51"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="26"/>
-      <c r="C30" s="59"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="60"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -1486,47 +1349,47 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="62"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="66"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
       <c r="F33" s="46"/>
-      <c r="G33" s="66"/>
+      <c r="G33" s="64"/>
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
       <c r="J33" s="46"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="9"/>
-      <c r="B34" s="67"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="9"/>
-      <c r="F34" s="67"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="9"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="67"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="9"/>
-      <c r="F35" s="67"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="9"/>
-      <c r="J35" s="67"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="39" t="s">
@@ -1539,7 +1402,7 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="66" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="33"/>
@@ -1547,83 +1410,20 @@
       <c r="J36" s="34"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="69"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="71"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
-    </row>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
     <row r="41" ht="14.25" customHeight="1"/>
     <row r="42" ht="14.25" customHeight="1"/>
     <row r="43" ht="14.25" customHeight="1"/>
@@ -2581,88 +2381,73 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="56">
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C33:F35"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="G33:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="C10:J11"/>
     <mergeCell ref="C14:J15"/>
-    <mergeCell ref="C12:J13"/>
     <mergeCell ref="C26:J27"/>
     <mergeCell ref="C24:J25"/>
     <mergeCell ref="C22:J23"/>
     <mergeCell ref="C20:J21"/>
     <mergeCell ref="C18:J19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C16:J17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C8:J9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:J17"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C10:J11"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G33:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C33:F35"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:J9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B4:J4"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A33:B35"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B5">
-      <formula1>$X$4:$X$150</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" man="1"/>
-  </colBreaks>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
